--- a/Health/Healthcare Ranking/LifeExpectancy&BMIOfDevelopedCountries.xlsx
+++ b/Health/Healthcare Ranking/LifeExpectancy&BMIOfDevelopedCountries.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junen\Documents\BAVP\Health\Healthcare Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3AB4EDE-0739-40A0-B0C4-EB8A5584265D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF34C10E-7ACA-4C49-A17B-6FBE09151FB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LifeExpectancy&amp;BMIOfDevelopedCo" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -889,12 +889,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/Health/Healthcare Ranking/LifeExpectancy&BMIOfDevelopedCountries.xlsx
+++ b/Health/Healthcare Ranking/LifeExpectancy&BMIOfDevelopedCountries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junen\Documents\BAVP\Health\Healthcare Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF34C10E-7ACA-4C49-A17B-6FBE09151FB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD7BE6B-1347-4EFE-B7F5-5C818AC70EE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,8 +533,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -893,25 +894,26 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Health/Healthcare Ranking/LifeExpectancy&BMIOfDevelopedCountries.xlsx
+++ b/Health/Healthcare Ranking/LifeExpectancy&BMIOfDevelopedCountries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junen\Documents\BAVP\Health\Healthcare Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD7BE6B-1347-4EFE-B7F5-5C818AC70EE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43921361-9ABB-4987-BF8C-9B6652BFDC19}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="9">
   <si>
     <t>Country</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">Life expectancy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMI </t>
   </si>
   <si>
     <t>Australia</t>
@@ -891,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,7 +900,7 @@
     <col min="3" max="3" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,13 +910,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>2015</v>
@@ -927,13 +921,10 @@
       <c r="C2">
         <v>82.8</v>
       </c>
-      <c r="D2">
-        <v>66.599999999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2014</v>
@@ -941,13 +932,10 @@
       <c r="C3">
         <v>82.7</v>
       </c>
-      <c r="D3">
-        <v>66.099999999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2013</v>
@@ -955,13 +943,10 @@
       <c r="C4">
         <v>82.5</v>
       </c>
-      <c r="D4">
-        <v>65.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2012</v>
@@ -969,13 +954,10 @@
       <c r="C5">
         <v>82.3</v>
       </c>
-      <c r="D5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>2011</v>
@@ -983,13 +965,10 @@
       <c r="C6">
         <v>82</v>
       </c>
-      <c r="D6">
-        <v>64.400000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -997,13 +976,10 @@
       <c r="C7">
         <v>81.900000000000006</v>
       </c>
-      <c r="D7">
-        <v>63.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>2009</v>
@@ -1011,13 +987,10 @@
       <c r="C8">
         <v>81.7</v>
       </c>
-      <c r="D8">
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>2008</v>
@@ -1025,13 +998,10 @@
       <c r="C9">
         <v>81.3</v>
       </c>
-      <c r="D9">
-        <v>62.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>2007</v>
@@ -1039,13 +1009,10 @@
       <c r="C10">
         <v>81.3</v>
       </c>
-      <c r="D10">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>2006</v>
@@ -1053,13 +1020,10 @@
       <c r="C11">
         <v>81.2</v>
       </c>
-      <c r="D11">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>2005</v>
@@ -1067,13 +1031,10 @@
       <c r="C12">
         <v>81</v>
       </c>
-      <c r="D12">
-        <v>61.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>2015</v>
@@ -1081,13 +1042,10 @@
       <c r="C13">
         <v>85</v>
       </c>
-      <c r="D13">
-        <v>63.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>2014</v>
@@ -1095,13 +1053,10 @@
       <c r="C14">
         <v>83</v>
       </c>
-      <c r="D14">
-        <v>63.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>2013</v>
@@ -1109,13 +1064,10 @@
       <c r="C15">
         <v>81</v>
       </c>
-      <c r="D15">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>2012</v>
@@ -1123,13 +1075,10 @@
       <c r="C16">
         <v>79.900000000000006</v>
       </c>
-      <c r="D16">
-        <v>61.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>2011</v>
@@ -1137,13 +1086,10 @@
       <c r="C17">
         <v>79.8</v>
       </c>
-      <c r="D17">
-        <v>61.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>2010</v>
@@ -1151,13 +1097,10 @@
       <c r="C18">
         <v>79.099999999999994</v>
       </c>
-      <c r="D18">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>2009</v>
@@ -1165,13 +1108,10 @@
       <c r="C19">
         <v>79.3</v>
       </c>
-      <c r="D19">
-        <v>59.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>2008</v>
@@ -1179,13 +1119,10 @@
       <c r="C20">
         <v>79.599999999999994</v>
       </c>
-      <c r="D20">
-        <v>59.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>2007</v>
@@ -1193,13 +1130,10 @@
       <c r="C21">
         <v>78.900000000000006</v>
       </c>
-      <c r="D21">
-        <v>58.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>2006</v>
@@ -1207,13 +1141,10 @@
       <c r="C22">
         <v>78.900000000000006</v>
       </c>
-      <c r="D22">
-        <v>58.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>2005</v>
@@ -1221,13 +1152,10 @@
       <c r="C23">
         <v>78.400000000000006</v>
       </c>
-      <c r="D23">
-        <v>57.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>2015</v>
@@ -1235,13 +1163,10 @@
       <c r="C24">
         <v>83.1</v>
       </c>
-      <c r="D24">
-        <v>33.200000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>2014</v>
@@ -1249,13 +1174,10 @@
       <c r="C25">
         <v>82.9</v>
       </c>
-      <c r="D25">
-        <v>32.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>2013</v>
@@ -1263,13 +1185,10 @@
       <c r="C26">
         <v>82.7</v>
       </c>
-      <c r="D26">
-        <v>32.700000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>2012</v>
@@ -1277,13 +1196,10 @@
       <c r="C27">
         <v>82.5</v>
       </c>
-      <c r="D27">
-        <v>32.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28">
         <v>2011</v>
@@ -1291,13 +1207,10 @@
       <c r="C28">
         <v>82.2</v>
       </c>
-      <c r="D28">
-        <v>32.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>2010</v>
@@ -1305,13 +1218,10 @@
       <c r="C29">
         <v>82</v>
       </c>
-      <c r="D29">
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <v>2009</v>
@@ -1319,13 +1229,10 @@
       <c r="C30">
         <v>81.7</v>
       </c>
-      <c r="D30">
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31">
         <v>2008</v>
@@ -1333,13 +1240,10 @@
       <c r="C31">
         <v>81.400000000000006</v>
       </c>
-      <c r="D31">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>2007</v>
@@ -1347,13 +1251,10 @@
       <c r="C32">
         <v>81.099999999999994</v>
       </c>
-      <c r="D32">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>2006</v>
@@ -1361,13 +1262,10 @@
       <c r="C33">
         <v>87</v>
       </c>
-      <c r="D33">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>2005</v>
@@ -1375,13 +1273,10 @@
       <c r="C34">
         <v>82</v>
       </c>
-      <c r="D34">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>2015</v>
@@ -1389,13 +1284,10 @@
       <c r="C35">
         <v>83.4</v>
       </c>
-      <c r="D35">
-        <v>57.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>2014</v>
@@ -1403,13 +1295,10 @@
       <c r="C36">
         <v>83.2</v>
       </c>
-      <c r="D36">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37">
         <v>2013</v>
@@ -1417,13 +1306,10 @@
       <c r="C37">
         <v>83</v>
       </c>
-      <c r="D37">
-        <v>56.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>2012</v>
@@ -1431,13 +1317,10 @@
       <c r="C38">
         <v>82.7</v>
       </c>
-      <c r="D38">
-        <v>56.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>2011</v>
@@ -1445,13 +1328,10 @@
       <c r="C39">
         <v>82.6</v>
       </c>
-      <c r="D39">
-        <v>55.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>2010</v>
@@ -1459,13 +1339,10 @@
       <c r="C40">
         <v>82.3</v>
       </c>
-      <c r="D40">
-        <v>55.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41">
         <v>2009</v>
@@ -1473,13 +1350,10 @@
       <c r="C41">
         <v>82.1</v>
       </c>
-      <c r="D41">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>2008</v>
@@ -1487,13 +1361,10 @@
       <c r="C42">
         <v>82</v>
       </c>
-      <c r="D42">
-        <v>54.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>2007</v>
@@ -1501,13 +1372,10 @@
       <c r="C43">
         <v>81.7</v>
       </c>
-      <c r="D43">
-        <v>54.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>2006</v>
@@ -1515,13 +1383,10 @@
       <c r="C44">
         <v>81.5</v>
       </c>
-      <c r="D44">
-        <v>53.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45">
         <v>2005</v>
@@ -1529,13 +1394,10 @@
       <c r="C45">
         <v>81.099999999999994</v>
       </c>
-      <c r="D45">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46">
         <v>2015</v>
@@ -1543,13 +1405,10 @@
       <c r="C46">
         <v>77.099999999999994</v>
       </c>
-      <c r="D46">
-        <v>64.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>2014</v>
@@ -1557,13 +1416,10 @@
       <c r="C47">
         <v>76.900000000000006</v>
       </c>
-      <c r="D47">
-        <v>62.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48">
         <v>2013</v>
@@ -1571,13 +1427,10 @@
       <c r="C48">
         <v>76.7</v>
       </c>
-      <c r="D48">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49">
         <v>2012</v>
@@ -1585,13 +1438,10 @@
       <c r="C49">
         <v>76.5</v>
       </c>
-      <c r="D49">
-        <v>58.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50">
         <v>2011</v>
@@ -1599,13 +1449,10 @@
       <c r="C50">
         <v>76.3</v>
       </c>
-      <c r="D50">
-        <v>57.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51">
         <v>2010</v>
@@ -1613,13 +1460,10 @@
       <c r="C51">
         <v>76.2</v>
       </c>
-      <c r="D51">
-        <v>55.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52">
         <v>2009</v>
@@ -1627,13 +1471,10 @@
       <c r="C52">
         <v>76</v>
       </c>
-      <c r="D52">
-        <v>55.1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53">
         <v>2008</v>
@@ -1641,13 +1482,10 @@
       <c r="C53">
         <v>75.8</v>
       </c>
-      <c r="D53">
-        <v>54.8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <v>2007</v>
@@ -1655,13 +1493,10 @@
       <c r="C54">
         <v>75.599999999999994</v>
       </c>
-      <c r="D54">
-        <v>55.1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55">
         <v>2006</v>
@@ -1669,13 +1504,10 @@
       <c r="C55">
         <v>75.400000000000006</v>
       </c>
-      <c r="D55">
-        <v>55.8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56">
         <v>2005</v>
@@ -1683,13 +1515,10 @@
       <c r="C56">
         <v>75.3</v>
       </c>
-      <c r="D56">
-        <v>56.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57">
         <v>2015</v>
@@ -1697,13 +1526,10 @@
       <c r="C57">
         <v>79.3</v>
       </c>
-      <c r="D57">
-        <v>69.599999999999994</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58">
         <v>2014</v>
@@ -1711,13 +1537,10 @@
       <c r="C58">
         <v>79.099999999999994</v>
       </c>
-      <c r="D58">
-        <v>69.099999999999994</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59">
         <v>2013</v>
@@ -1725,13 +1548,10 @@
       <c r="C59">
         <v>78.900000000000006</v>
       </c>
-      <c r="D59">
-        <v>68.599999999999994</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60">
         <v>2012</v>
@@ -1739,13 +1559,10 @@
       <c r="C60">
         <v>78.8</v>
       </c>
-      <c r="D60">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61">
         <v>2011</v>
@@ -1753,13 +1570,10 @@
       <c r="C61">
         <v>78.7</v>
       </c>
-      <c r="D61">
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B62">
         <v>2010</v>
@@ -1767,13 +1581,10 @@
       <c r="C62">
         <v>78.7</v>
       </c>
-      <c r="D62">
-        <v>66.900000000000006</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63">
         <v>2009</v>
@@ -1781,13 +1592,10 @@
       <c r="C63">
         <v>78.5</v>
       </c>
-      <c r="D63">
-        <v>66.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64">
         <v>2008</v>
@@ -1795,13 +1603,10 @@
       <c r="C64">
         <v>78.2</v>
       </c>
-      <c r="D64">
-        <v>65.7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65">
         <v>2007</v>
@@ -1809,13 +1614,10 @@
       <c r="C65">
         <v>78.099999999999994</v>
       </c>
-      <c r="D65">
-        <v>65.099999999999994</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B66">
         <v>2006</v>
@@ -1823,22 +1625,16 @@
       <c r="C66">
         <v>77.8</v>
       </c>
-      <c r="D66">
-        <v>64.400000000000006</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <v>2005</v>
       </c>
       <c r="C67">
         <v>77.5</v>
-      </c>
-      <c r="D67">
-        <v>63.8</v>
       </c>
     </row>
   </sheetData>
